--- a/Docs/Schedule.xlsx
+++ b/Docs/Schedule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinalProject\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E03F99-1C3A-40AD-BC4A-8B45E2C1352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,142 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+  <si>
+    <t>Tuần</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Nội dung công việc</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>15/09 – 21/09</t>
+  </si>
+  <si>
+    <t>Phân tích đề tài, viết intro.xlsx</t>
+  </si>
+  <si>
+    <t>File intro.xlsx hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>22/09 – 28/09</t>
+  </si>
+  <si>
+    <t>Thiết kế kiến trúc hệ thống (Use Case, ERD, sơ đồ tổng thể)</t>
+  </si>
+  <si>
+    <t>Sơ đồ kiến trúc trong docs/</t>
+  </si>
+  <si>
+    <t>29/09 – 05/10</t>
+  </si>
+  <si>
+    <t>Xây dựng backend Spring Boot (user auth, recipe API)</t>
+  </si>
+  <si>
+    <t>API cơ bản chạy được</t>
+  </si>
+  <si>
+    <t>06/10 – 12/10</t>
+  </si>
+  <si>
+    <t>Xây dựng frontend ReactJS (auth, UI cơ bản)</t>
+  </si>
+  <si>
+    <t>Giao diện cơ bản</t>
+  </si>
+  <si>
+    <t>13/10 – 19/10</t>
+  </si>
+  <si>
+    <t>Tích hợp AI API (Gemini/OpenAI) vào hệ thống</t>
+  </si>
+  <si>
+    <t>Demo AI chat</t>
+  </si>
+  <si>
+    <t>20/10 – 26/10</t>
+  </si>
+  <si>
+    <t>Kết nối frontend-backend, lưu dữ liệu vào DB</t>
+  </si>
+  <si>
+    <t>Dữ liệu lưu được, demo end-to-end</t>
+  </si>
+  <si>
+    <t>27/10 – 02/11</t>
+  </si>
+  <si>
+    <t>Viết báo cáo tuần, fix bug hệ thống</t>
+  </si>
+  <si>
+    <t>Báo cáo + hệ thống ổn định hơn</t>
+  </si>
+  <si>
+    <t>03/11 – 09/11</t>
+  </si>
+  <si>
+    <t>Hoàn thiện chức năng quản lý công thức, tính calo</t>
+  </si>
+  <si>
+    <t>Tính calo chạy được</t>
+  </si>
+  <si>
+    <t>10/11 – 16/11</t>
+  </si>
+  <si>
+    <t>Kiểm thử hệ thống, viết test case</t>
+  </si>
+  <si>
+    <t>Test case + báo cáo test</t>
+  </si>
+  <si>
+    <t>17/11 – 23/11</t>
+  </si>
+  <si>
+    <t>Cập nhật báo cáo tuần, hoàn thiện chức năng AI gợi ý</t>
+  </si>
+  <si>
+    <t>AI gợi ý hoạt động ổn định</t>
+  </si>
+  <si>
+    <t>24/11 – 30/11</t>
+  </si>
+  <si>
+    <t>Chuẩn bị báo cáo gần hoàn chỉnh, review với GVHD</t>
+  </si>
+  <si>
+    <t>Bản báo cáo lần 1</t>
+  </si>
+  <si>
+    <t>01/12 – 09/12</t>
+  </si>
+  <si>
+    <t>Hoàn thiện, chỉnh sửa báo cáo, chuẩn bị nộp</t>
+  </si>
+  <si>
+    <t>Bản báo cáo cuối cùng</t>
+  </si>
+  <si>
+    <t>Phan Văn Tỏ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +470,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>